--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Tnetserver\tnet\WIP\Users\HaTH\WS_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Hoc Tap\FPT Univerdity\Do an tot nghiep 2015\2015FALLIS01\WIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -4197,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5072,7 +5072,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B4" sqref="B4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -9,35 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" tabRatio="923" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
-    <sheet name="Login" sheetId="4" r:id="rId2"/>
-    <sheet name="LoginByFacebook" sheetId="27" r:id="rId3"/>
-    <sheet name="UpdateRider" sheetId="7" r:id="rId4"/>
-    <sheet name="UpdateRiderAddress" sheetId="8" r:id="rId5"/>
-    <sheet name="ChangePassword" sheetId="9" r:id="rId6"/>
-    <sheet name="Logout" sheetId="10" r:id="rId7"/>
-    <sheet name="ResetPassword" sheetId="11" r:id="rId8"/>
-    <sheet name="GetFeedBackInfo" sheetId="32" r:id="rId9"/>
-    <sheet name="SendFeedBack" sheetId="12" r:id="rId10"/>
-    <sheet name="Register" sheetId="5" r:id="rId11"/>
-    <sheet name="UpdateRegId" sheetId="13" r:id="rId12"/>
-    <sheet name="AddFavoriteDriver" sheetId="14" r:id="rId13"/>
-    <sheet name="GetListFavoriteDriver" sheetId="15" r:id="rId14"/>
-    <sheet name="DeleteFavoriteDriver" sheetId="16" r:id="rId15"/>
-    <sheet name="FileUploadController" sheetId="17" r:id="rId16"/>
-    <sheet name="UpdateCurrentStatus" sheetId="18" r:id="rId17"/>
-    <sheet name="GetNearDriver" sheetId="19" r:id="rId18"/>
-    <sheet name="UpdateDriverStatus" sheetId="33" r:id="rId19"/>
-    <sheet name="CheckTripStatus" sheetId="30" r:id="rId20"/>
-    <sheet name="CreateTrip" sheetId="20" r:id="rId21"/>
-    <sheet name="CancelTrip" sheetId="21" r:id="rId22"/>
-    <sheet name="RateTrip" sheetId="34" r:id="rId23"/>
-    <sheet name="GetListCompleteTrip" sheetId="22" r:id="rId24"/>
-    <sheet name="FindPromotionTrip" sheetId="24" r:id="rId25"/>
-    <sheet name="RegisterPromotionTrip" sheetId="23" r:id="rId26"/>
+    <sheet name="getCityName" sheetId="35" r:id="rId2"/>
+    <sheet name="Login" sheetId="4" r:id="rId3"/>
+    <sheet name="LoginByFacebook" sheetId="27" r:id="rId4"/>
+    <sheet name="UpdateRider" sheetId="7" r:id="rId5"/>
+    <sheet name="UpdateRiderAddress" sheetId="8" r:id="rId6"/>
+    <sheet name="ChangePassword" sheetId="9" r:id="rId7"/>
+    <sheet name="Logout" sheetId="10" r:id="rId8"/>
+    <sheet name="ResetPassword" sheetId="11" r:id="rId9"/>
+    <sheet name="GetFeedBackInfo" sheetId="32" r:id="rId10"/>
+    <sheet name="SendFeedBack" sheetId="12" r:id="rId11"/>
+    <sheet name="Register" sheetId="5" r:id="rId12"/>
+    <sheet name="UpdateRegId" sheetId="13" r:id="rId13"/>
+    <sheet name="AddFavoriteDriver" sheetId="14" r:id="rId14"/>
+    <sheet name="GetListFavoriteDriver" sheetId="15" r:id="rId15"/>
+    <sheet name="DeleteFavoriteDriver" sheetId="16" r:id="rId16"/>
+    <sheet name="FileUploadController" sheetId="17" r:id="rId17"/>
+    <sheet name="UpdateCurrentStatus" sheetId="18" r:id="rId18"/>
+    <sheet name="GetNearDriver" sheetId="19" r:id="rId19"/>
+    <sheet name="UpdateDriverStatus" sheetId="33" r:id="rId20"/>
+    <sheet name="CheckTripStatus" sheetId="30" r:id="rId21"/>
+    <sheet name="CreateTrip" sheetId="20" r:id="rId22"/>
+    <sheet name="CancelTrip" sheetId="21" r:id="rId23"/>
+    <sheet name="RateTrip" sheetId="34" r:id="rId24"/>
+    <sheet name="GetListCompleteTrip" sheetId="22" r:id="rId25"/>
+    <sheet name="FindPromotionTrip" sheetId="24" r:id="rId26"/>
+    <sheet name="RegisterPromotionTrip" sheetId="23" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="301">
   <si>
     <t>Module Name</t>
   </si>
@@ -949,13 +950,22 @@
   </si>
   <si>
     <t>capacity</t>
+  </si>
+  <si>
+    <t>TestController</t>
+  </si>
+  <si>
+    <t>getCityName</t>
+  </si>
+  <si>
+    <t>private String uid; private String pw; private String lan; private String cntry; private String cName;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,6 +1033,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF373E4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1460,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1700,6 +1716,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2147,6 +2164,208 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="112"/>
+      <c r="B9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="112"/>
+      <c r="B11" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="112"/>
+      <c r="B12" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="112"/>
+      <c r="B13" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="112"/>
+      <c r="B15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="112"/>
+      <c r="B16" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="113"/>
+      <c r="B17" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2302,7 +2521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -2572,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2763,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2914,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -3266,7 +3485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3413,7 +3632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3588,7 +3807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -3767,7 +3986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -4193,7 +4412,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="133" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -4516,7 +4769,1961 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="109" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="109" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="110" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="15"/>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
+      <c r="B28" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="80"/>
+      <c r="B29" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
+      <c r="B30" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
+      <c r="B31" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
+      <c r="B32" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="80"/>
+      <c r="B34" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
+      <c r="B35" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="80"/>
+      <c r="B36" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -5067,1961 +7274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="109" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="109" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="109" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="110" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="15"/>
-      <c r="E50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="41"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7255,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7495,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -7781,7 +8034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7975,7 +8228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -8090,7 +8343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -8202,206 +8455,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
-      <c r="B17" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:A17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Hoc Tap\FPT Univerdity\Do an tot nghiep 2015\2015FALLIS01\WIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuph_000\Documents\GitHub\2015FALLIS01\WIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" tabRatio="923" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="25" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="GetListCompleteTrip" sheetId="22" r:id="rId25"/>
     <sheet name="FindPromotionTrip" sheetId="24" r:id="rId26"/>
     <sheet name="RegisterPromotionTrip" sheetId="23" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="36" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -1650,6 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1716,7 +1718,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2257,7 +2258,7 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="112" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -2271,7 +2272,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
@@ -2279,7 +2280,7 @@
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="19" t="s">
         <v>115</v>
       </c>
@@ -2287,7 +2288,7 @@
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="19" t="s">
         <v>216</v>
       </c>
@@ -2297,7 +2298,7 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="19" t="s">
         <v>217</v>
       </c>
@@ -2307,7 +2308,7 @@
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="19" t="s">
         <v>218</v>
       </c>
@@ -2317,7 +2318,7 @@
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="19" t="s">
         <v>219</v>
       </c>
@@ -2327,7 +2328,7 @@
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="19" t="s">
         <v>221</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="19" t="s">
         <v>222</v>
       </c>
@@ -2349,7 +2350,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="16" t="s">
         <v>184</v>
       </c>
@@ -2566,7 +2567,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2580,7 +2581,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
@@ -2590,7 +2591,7 @@
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="1" t="s">
         <v>79</v>
       </c>
@@ -2600,7 +2601,7 @@
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="128"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="19" t="s">
         <v>84</v>
       </c>
@@ -2610,7 +2611,7 @@
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="19" t="s">
         <v>83</v>
       </c>
@@ -2620,7 +2621,7 @@
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
@@ -2630,7 +2631,7 @@
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="33" t="s">
         <v>107</v>
       </c>
@@ -2642,13 +2643,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34"/>
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
@@ -2658,7 +2659,7 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="33" t="s">
         <v>116</v>
       </c>
@@ -2670,7 +2671,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="71" t="s">
         <v>119</v>
       </c>
@@ -2682,7 +2683,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="128"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="71" t="s">
         <v>120</v>
       </c>
@@ -2694,7 +2695,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="71" t="s">
         <v>122</v>
       </c>
@@ -2706,7 +2707,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="128"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="71" t="s">
         <v>121</v>
       </c>
@@ -2718,7 +2719,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="71" t="s">
         <v>123</v>
       </c>
@@ -2730,23 +2731,23 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="33"/>
       <c r="C18" s="5"/>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
+      <c r="A19" s="129"/>
       <c r="C19" s="5"/>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
+      <c r="A20" s="129"/>
       <c r="C20" s="6"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="112" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2760,7 +2761,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="19" t="s">
         <v>62</v>
       </c>
@@ -2770,13 +2771,13 @@
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
@@ -3027,7 +3028,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3041,7 +3042,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
@@ -3053,7 +3054,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
@@ -3065,7 +3066,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="33" t="s">
         <v>129</v>
       </c>
@@ -3077,19 +3078,19 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3103,7 +3104,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
@@ -3113,13 +3114,13 @@
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="1"/>
       <c r="C11" s="5"/>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -3178,7 +3179,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="131" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3192,7 +3193,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -3202,7 +3203,7 @@
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="33" t="s">
         <v>225</v>
       </c>
@@ -3214,19 +3215,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="131"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
@@ -3812,7 +3813,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,6 +3984,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4416,7 +4418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4426,17 +4428,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="111" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="111" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="111" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5682,7 +5684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6723,11 +6725,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -6756,10 +6770,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
@@ -6771,10 +6785,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6786,8 +6800,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="1" t="s">
         <v>78</v>
       </c>
@@ -6799,8 +6813,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
@@ -6812,8 +6826,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="23" t="s">
         <v>178</v>
       </c>
@@ -6825,8 +6839,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="23" t="s">
         <v>179</v>
       </c>
@@ -6838,14 +6852,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="112" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -6860,7 +6874,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="68" t="s">
         <v>62</v>
       </c>
@@ -6871,7 +6885,7 @@
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="69" t="s">
         <v>93</v>
       </c>
@@ -6882,8 +6896,8 @@
       <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="122" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="123" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -6897,8 +6911,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="123"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="58" t="s">
         <v>84</v>
       </c>
@@ -6910,8 +6924,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="123"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="58" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +6937,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="123"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="58" t="s">
         <v>27</v>
       </c>
@@ -6936,8 +6950,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="123"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="58" t="s">
         <v>81</v>
       </c>
@@ -6949,8 +6963,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="123"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="58" t="s">
         <v>85</v>
       </c>
@@ -6962,8 +6976,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="58" t="s">
         <v>86</v>
       </c>
@@ -6975,8 +6989,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="123"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="58" t="s">
         <v>87</v>
       </c>
@@ -6988,8 +7002,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="123"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="58" t="s">
         <v>88</v>
       </c>
@@ -7001,8 +7015,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="123"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="58" t="s">
         <v>92</v>
       </c>
@@ -7014,8 +7028,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="58" t="s">
         <v>91</v>
       </c>
@@ -7027,8 +7041,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="123"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="58" t="s">
         <v>78</v>
       </c>
@@ -7040,8 +7054,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="123"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="58" t="s">
         <v>26</v>
       </c>
@@ -7053,8 +7067,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="123"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="58" t="s">
         <v>30</v>
       </c>
@@ -7066,8 +7080,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="123"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="58" t="s">
         <v>107</v>
       </c>
@@ -7079,8 +7093,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="123"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="58" t="s">
         <v>181</v>
       </c>
@@ -7092,8 +7106,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="123"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="58" t="s">
         <v>116</v>
       </c>
@@ -7105,8 +7119,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="123"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="58" t="s">
         <v>185</v>
       </c>
@@ -7118,8 +7132,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="123"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="58" t="s">
         <v>186</v>
       </c>
@@ -7131,8 +7145,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="123"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="58" t="s">
         <v>187</v>
       </c>
@@ -7144,8 +7158,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="123"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="58" t="s">
         <v>188</v>
       </c>
@@ -7157,8 +7171,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
-      <c r="B33" s="123"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="58" t="s">
         <v>189</v>
       </c>
@@ -7170,8 +7184,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
-      <c r="B34" s="123"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="58" t="s">
         <v>190</v>
       </c>
@@ -7183,8 +7197,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="112"/>
-      <c r="B35" s="123"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="45" t="s">
         <v>31</v>
       </c>
@@ -7196,8 +7210,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
-      <c r="B36" s="123"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="45" t="s">
         <v>34</v>
       </c>
@@ -7209,8 +7223,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="123"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="45" t="s">
         <v>35</v>
       </c>
@@ -7222,8 +7236,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="123"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="45" t="s">
         <v>22</v>
       </c>
@@ -7235,29 +7249,29 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="33"/>
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="123"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="59"/>
       <c r="D40" s="34"/>
       <c r="E40" s="51"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" s="123"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="19"/>
       <c r="D41" s="5"/>
       <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
-      <c r="B42" s="124"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="29"/>
@@ -7435,7 +7449,7 @@
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="126" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7449,7 +7463,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>31</v>
       </c>
@@ -7459,7 +7473,7 @@
       <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="33" t="s">
         <v>93</v>
       </c>
@@ -7471,7 +7485,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="33" t="s">
         <v>62</v>
       </c>
@@ -7483,19 +7497,19 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="19"/>
       <c r="C18" s="5"/>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="19"/>
       <c r="C19" s="5"/>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
@@ -7512,7 +7526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -7675,7 +7689,7 @@
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="126" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7689,7 +7703,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>31</v>
       </c>
@@ -7699,7 +7713,7 @@
       <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="33" t="s">
         <v>93</v>
       </c>
@@ -7711,7 +7725,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="33" t="s">
         <v>62</v>
       </c>
@@ -7723,19 +7737,19 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="19"/>
       <c r="C18" s="5"/>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="19"/>
       <c r="C19" s="5"/>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
@@ -7971,7 +7985,7 @@
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="126" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -7985,19 +7999,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="52"/>
       <c r="C22" s="53"/>
       <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
       <c r="D23" s="35"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="33" t="s">
         <v>62</v>
       </c>
@@ -8009,19 +8023,19 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="19"/>
       <c r="C25" s="5"/>
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="19"/>
       <c r="C26" s="5"/>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="127"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
@@ -8159,7 +8173,7 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="126" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -8173,7 +8187,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="55" t="s">
         <v>31</v>
       </c>
@@ -8183,7 +8197,7 @@
       <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="33" t="s">
         <v>103</v>
       </c>
@@ -8193,7 +8207,7 @@
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="33" t="s">
         <v>62</v>
       </c>
@@ -8203,19 +8217,19 @@
       <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="19"/>
       <c r="C16" s="5"/>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="19"/>
       <c r="C17" s="5"/>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="127"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
@@ -8348,7 +8362,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="B4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8418,7 +8432,7 @@
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="112" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -8432,7 +8446,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="19" t="s">
         <v>62</v>
       </c>
@@ -8444,7 +8458,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>

--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuph_000\Documents\GitHub\2015FALLIS01\WIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Hoc Tap\FPT Univerdity\Do an tot nghiep 2015\2015FALLIS01\WIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="25" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="24" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -5684,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6729,7 +6729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="24" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -3490,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,6 +3635,9 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3810,10 +3813,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,6 +3996,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4450,10 +4459,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,10 +4785,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,6 +4993,9 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5408,10 +5426,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:XFD1048576"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5539,10 +5560,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5684,7 +5708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="20490" windowHeight="7755" tabRatio="923" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -3490,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
@@ -7550,8 +7550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="20490" windowHeight="7755" tabRatio="923" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -2369,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7550,7 +7550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="300">
   <si>
     <t>Module Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>/Logout</t>
   </si>
   <si>
-    <t>/ResetPassword</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -663,9 +660,6 @@
   </si>
   <si>
     <t>/UpdateAddress</t>
-  </si>
-  <si>
-    <t>/DriverCtr</t>
   </si>
   <si>
     <t>user id</t>
@@ -960,6 +954,9 @@
   </si>
   <si>
     <t>private String uid; private String pw; private String lan; private String cntry; private String cName;</t>
+  </si>
+  <si>
+    <t>/resetPassword</t>
   </si>
 </sst>
 </file>
@@ -2115,22 +2112,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2138,23 +2135,23 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,13 +2195,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,7 +2221,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -2234,7 +2231,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -2244,7 +2241,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -2259,7 +2256,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>3</v>
@@ -2274,7 +2271,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="113"/>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15"/>
@@ -2282,7 +2279,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="113"/>
       <c r="B10" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -2290,17 +2287,17 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="113"/>
       <c r="B11" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="113"/>
       <c r="B12" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
@@ -2310,27 +2307,27 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="113"/>
       <c r="B13" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="113"/>
       <c r="B14" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="113"/>
       <c r="B15" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
@@ -2340,19 +2337,19 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="113"/>
       <c r="B16" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="114"/>
       <c r="B17" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -2369,7 +2366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2404,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,19 +2421,19 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -2446,7 +2443,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -2456,7 +2453,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>5</v>
@@ -2466,7 +2463,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>5</v>
@@ -2481,7 +2478,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -2496,13 +2493,13 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -2568,7 +2565,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -2583,7 +2580,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="129"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -2593,7 +2590,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="129"/>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -2603,7 +2600,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="129"/>
       <c r="B6" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -2613,7 +2610,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="129"/>
       <c r="B7" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
@@ -2633,13 +2630,13 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="129"/>
       <c r="B9" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,7 +2648,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="129"/>
       <c r="B11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>5</v>
@@ -2661,73 +2658,73 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="129"/>
       <c r="B12" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="129"/>
       <c r="B13" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
       <c r="B14" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="129"/>
       <c r="B15" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
       <c r="B16" s="71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="129"/>
       <c r="B17" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,7 +2745,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -2763,7 +2760,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="113"/>
       <c r="B22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>23</v>
@@ -2813,17 +2810,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="84" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="86"/>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,13 +2828,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="89" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="86"/>
     </row>
@@ -2881,7 +2878,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="91"/>
       <c r="B6" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>5</v>
@@ -2947,7 +2944,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="98"/>
       <c r="B12" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>5</v>
@@ -3010,7 +3007,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,18 +3015,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -3044,7 +3041,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="113"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -3056,25 +3053,25 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="113"/>
       <c r="B5" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="113"/>
       <c r="B6" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,7 +3103,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="113"/>
       <c r="B10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
@@ -3161,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3169,13 +3166,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,13 +3202,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="132"/>
       <c r="B5" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,7 +3246,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -3257,7 +3254,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="15"/>
@@ -3265,7 +3262,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="15"/>
@@ -3273,17 +3270,17 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
@@ -3293,7 +3290,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
@@ -3303,7 +3300,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -3313,7 +3310,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -3323,7 +3320,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="77"/>
       <c r="B18" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
@@ -3333,10 +3330,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D19" s="15"/>
     </row>
@@ -3513,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,13 +3518,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3547,7 +3544,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -3559,25 +3556,25 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3609,7 +3606,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -3657,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,13 +3668,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,13 +3700,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -3719,17 +3716,17 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>5</v>
@@ -3741,7 +3738,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>5</v>
@@ -3753,13 +3750,13 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,25 +3776,25 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3836,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="84" t="s">
         <v>8</v>
@@ -3845,7 +3842,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,13 +3850,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="89" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3879,7 +3876,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="91"/>
       <c r="B4" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>5</v>
@@ -3895,7 +3892,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3965,7 +3962,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="98"/>
       <c r="B12" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>5</v>
@@ -4027,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -4085,7 +4082,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>5</v>
@@ -4097,7 +4094,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>5</v>
@@ -4109,13 +4106,13 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,65 +4138,65 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -4209,143 +4206,143 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,17 +4435,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4490,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4498,7 +4495,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -4524,7 +4521,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>5</v>
@@ -4536,7 +4533,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>5</v>
@@ -4548,13 +4545,13 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4589,7 +4586,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="77"/>
       <c r="B11" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="15"/>
@@ -4597,7 +4594,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="77"/>
       <c r="B12" s="107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="15"/>
@@ -4605,7 +4602,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="77"/>
       <c r="B13" s="108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="15"/>
@@ -4613,7 +4610,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="77"/>
       <c r="B14" s="108" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="15"/>
@@ -4621,7 +4618,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="77"/>
       <c r="B15" s="108" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="15"/>
@@ -4629,17 +4626,17 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="77"/>
       <c r="B16" s="108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="77"/>
       <c r="B17" s="108" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15"/>
@@ -4647,7 +4644,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="77"/>
       <c r="B18" s="108" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="15"/>
@@ -4813,7 +4810,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4821,13 +4818,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,22 +4843,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -4871,7 +4868,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -4918,60 +4915,60 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,7 +5018,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,13 +5026,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,7 +5052,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -5065,7 +5062,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -5075,7 +5072,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -5085,7 +5082,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="15"/>
@@ -5093,7 +5090,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="15"/>
@@ -5101,7 +5098,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15"/>
@@ -5109,7 +5106,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -5117,7 +5114,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="15"/>
@@ -5125,7 +5122,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="15"/>
@@ -5133,7 +5130,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="15"/>
@@ -5141,7 +5138,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="15"/>
@@ -5149,7 +5146,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="109" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="15"/>
@@ -5157,7 +5154,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="109" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15"/>
@@ -5165,7 +5162,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
@@ -5173,7 +5170,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="35"/>
@@ -5181,11 +5178,11 @@
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="109" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="110" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,7 +5208,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="15"/>
@@ -5219,7 +5216,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="15"/>
@@ -5227,13 +5224,13 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,7 +5389,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="15"/>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5454,7 +5451,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,13 +5459,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5488,7 +5485,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="15"/>
@@ -5496,7 +5493,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="15"/>
@@ -5504,11 +5501,11 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5534,7 +5531,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15"/>
@@ -5542,7 +5539,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="15"/>
@@ -5588,7 +5585,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5596,13 +5593,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5622,7 +5619,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="15"/>
@@ -5630,7 +5627,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="15"/>
@@ -5638,17 +5635,17 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -5658,7 +5655,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="13"/>
@@ -5680,7 +5677,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="77"/>
       <c r="B10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -5688,7 +5685,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="77"/>
       <c r="B11" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="15"/>
@@ -5731,7 +5728,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,13 +5736,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5765,7 +5762,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="15"/>
@@ -5773,7 +5770,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
@@ -5781,7 +5778,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="13"/>
@@ -5809,7 +5806,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15"/>
@@ -5817,7 +5814,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -5825,7 +5822,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="15"/>
@@ -5833,7 +5830,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="15"/>
@@ -5841,7 +5838,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="15"/>
@@ -5849,7 +5846,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="15"/>
@@ -5857,7 +5854,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="15"/>
@@ -5865,7 +5862,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15"/>
@@ -5873,7 +5870,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15"/>
@@ -5881,7 +5878,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="15"/>
@@ -5889,7 +5886,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="15"/>
@@ -5897,7 +5894,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="15"/>
@@ -5905,7 +5902,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="15"/>
@@ -5913,7 +5910,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="15"/>
@@ -5921,7 +5918,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="15"/>
@@ -5929,7 +5926,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="15"/>
@@ -5937,7 +5934,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="15"/>
@@ -5945,7 +5942,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="15"/>
@@ -5953,7 +5950,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="15"/>
@@ -5961,7 +5958,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="15"/>
@@ -6074,7 +6071,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6082,13 +6079,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2" s="40"/>
     </row>
@@ -6109,7 +6106,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="15"/>
@@ -6117,7 +6114,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="15"/>
@@ -6125,7 +6122,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="15"/>
@@ -6133,7 +6130,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="15"/>
@@ -6141,7 +6138,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="15"/>
@@ -6149,7 +6146,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15"/>
@@ -6157,7 +6154,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -6165,7 +6162,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="41"/>
@@ -6173,7 +6170,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="41"/>
@@ -6181,7 +6178,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="41"/>
@@ -6189,7 +6186,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -6211,7 +6208,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15"/>
@@ -6219,7 +6216,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="15"/>
@@ -6227,7 +6224,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="15"/>
@@ -6235,7 +6232,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="15"/>
@@ -6243,17 +6240,17 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="80"/>
       <c r="B21" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="15"/>
@@ -6261,7 +6258,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="15"/>
@@ -6269,7 +6266,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="15"/>
@@ -6277,7 +6274,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="15"/>
@@ -6285,7 +6282,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="15"/>
@@ -6293,19 +6290,19 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="15"/>
@@ -6313,7 +6310,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="15"/>
@@ -6321,7 +6318,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="15"/>
@@ -6329,7 +6326,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="15"/>
@@ -6337,17 +6334,17 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="80"/>
       <c r="B32" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -6357,17 +6354,17 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
       <c r="B34" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
@@ -6375,7 +6372,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
@@ -6389,7 +6386,7 @@
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
@@ -6424,7 +6421,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6432,13 +6429,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E2" s="40"/>
     </row>
@@ -6459,7 +6456,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="15"/>
@@ -6467,7 +6464,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="15"/>
@@ -6475,7 +6472,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="15"/>
@@ -6483,7 +6480,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="15"/>
@@ -6491,7 +6488,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="15"/>
@@ -6499,7 +6496,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="15"/>
@@ -6507,7 +6504,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15"/>
@@ -6515,7 +6512,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
@@ -6523,7 +6520,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
@@ -6531,7 +6528,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
@@ -6539,7 +6536,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -6547,7 +6544,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35"/>
@@ -6555,7 +6552,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35"/>
@@ -6563,7 +6560,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
@@ -6571,7 +6568,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="35"/>
@@ -6617,7 +6614,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="15"/>
@@ -6625,7 +6622,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="15"/>
@@ -6799,13 +6796,13 @@
       </c>
       <c r="B2" s="122"/>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6827,7 +6824,7 @@
       <c r="A4" s="117"/>
       <c r="B4" s="118"/>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -6840,20 +6837,20 @@
       <c r="A5" s="117"/>
       <c r="B5" s="118"/>
       <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="117"/>
       <c r="B6" s="118"/>
       <c r="C6" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>5</v>
@@ -6866,13 +6863,13 @@
       <c r="A7" s="117"/>
       <c r="B7" s="118"/>
       <c r="C7" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>179</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6884,7 +6881,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>3</v>
@@ -6900,7 +6897,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="113"/>
       <c r="B10" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="65" t="s">
@@ -6911,21 +6908,21 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="113"/>
       <c r="B11" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="113"/>
       <c r="B12" s="123" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
@@ -6938,7 +6935,7 @@
       <c r="A13" s="113"/>
       <c r="B13" s="124"/>
       <c r="C13" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -6951,7 +6948,7 @@
       <c r="A14" s="113"/>
       <c r="B14" s="124"/>
       <c r="C14" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
@@ -6977,7 +6974,7 @@
       <c r="A16" s="113"/>
       <c r="B16" s="124"/>
       <c r="C16" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
@@ -6990,7 +6987,7 @@
       <c r="A17" s="113"/>
       <c r="B17" s="124"/>
       <c r="C17" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>5</v>
@@ -7003,7 +7000,7 @@
       <c r="A18" s="113"/>
       <c r="B18" s="124"/>
       <c r="C18" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
@@ -7016,33 +7013,33 @@
       <c r="A19" s="113"/>
       <c r="B19" s="124"/>
       <c r="C19" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="113"/>
       <c r="B20" s="124"/>
       <c r="C20" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="113"/>
       <c r="B21" s="124"/>
       <c r="C21" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>20</v>
@@ -7055,7 +7052,7 @@
       <c r="A22" s="113"/>
       <c r="B22" s="124"/>
       <c r="C22" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>20</v>
@@ -7068,7 +7065,7 @@
       <c r="A23" s="113"/>
       <c r="B23" s="124"/>
       <c r="C23" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
@@ -7107,117 +7104,117 @@
       <c r="A26" s="113"/>
       <c r="B26" s="124"/>
       <c r="C26" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="113"/>
       <c r="B27" s="124"/>
       <c r="C27" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="113"/>
       <c r="B28" s="124"/>
       <c r="C28" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>182</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="113"/>
       <c r="B29" s="124"/>
       <c r="C29" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="113"/>
       <c r="B30" s="124"/>
       <c r="C30" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="124"/>
       <c r="C31" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="113"/>
       <c r="B32" s="124"/>
       <c r="C32" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="113"/>
       <c r="B33" s="124"/>
       <c r="C33" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="113"/>
       <c r="B34" s="124"/>
       <c r="C34" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -7347,13 +7344,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7373,13 +7370,13 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7397,25 +7394,25 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7433,7 +7430,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>5</v>
@@ -7445,13 +7442,13 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,7 +7471,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -7499,25 +7496,25 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="127"/>
       <c r="B16" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="127"/>
       <c r="B17" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7550,8 +7547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7581,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -7607,13 +7604,13 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7631,31 +7628,31 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="19" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -7667,7 +7664,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>5</v>
@@ -7679,7 +7676,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>5</v>
@@ -7691,13 +7688,13 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7714,7 +7711,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -7739,25 +7736,25 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="127"/>
       <c r="B16" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="127"/>
       <c r="B17" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,8 +7787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7813,7 +7810,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7821,13 +7818,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,13 +7850,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -7869,13 +7866,13 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7901,23 +7898,23 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,43 +7930,43 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
@@ -8010,7 +8007,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -8037,13 +8034,13 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="127"/>
       <c r="B24" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8107,7 +8104,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -8139,37 +8136,37 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8198,7 +8195,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -8223,17 +8220,17 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="127"/>
       <c r="B14" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="127"/>
       <c r="B15" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>23</v>
@@ -8296,7 +8293,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8304,7 +8301,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -8313,7 +8310,7 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8386,7 +8383,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="B4:D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,8 +8404,8 @@
       <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
+      <c r="D1" s="111" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8416,13 +8413,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,7 +8454,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>3</v>
@@ -8472,13 +8469,13 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="113"/>
       <c r="B7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8492,5 +8489,6 @@
     <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="8" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="301">
   <si>
     <t>Module Name</t>
   </si>
@@ -957,6 +957,9 @@
   </si>
   <si>
     <t>/resetPassword</t>
+  </si>
+  <si>
+    <t>updateDriverStatus</t>
   </si>
 </sst>
 </file>
@@ -4461,8 +4464,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,8 +4503,8 @@
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
+      <c r="D2" s="111" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,6 +4780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7547,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_RIder_v0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="8" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="20490" windowHeight="7755" tabRatio="923" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="31" r:id="rId1"/>
@@ -4464,7 +4464,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -7551,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
